--- a/master_data_produksi.xlsx
+++ b/master_data_produksi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website\Dashboard_Sawit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8FC941-E00D-4513-897F-0008D87F0ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267B35C4-DB22-4003-A452-4798F97FFA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" activeTab="4" xr2:uid="{6889D3F6-226A-4E12-86EC-B733BF590074}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="700" xr2:uid="{6889D3F6-226A-4E12-86EC-B733BF590074}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>Tanggal</t>
   </si>
@@ -307,11 +307,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3763E64B-0A84-4752-A37B-6B8933921A86}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1228,166 @@
         <v>386.37000000000006</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>46071</v>
+      </c>
+      <c r="B19" s="2">
+        <v>118.29</v>
+      </c>
+      <c r="C19" s="2">
+        <v>208</v>
+      </c>
+      <c r="D19" s="2">
+        <v>27</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>225</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.82417582417582413</v>
+      </c>
+      <c r="H19" s="27">
+        <v>65</v>
+      </c>
+      <c r="I19" s="26">
+        <v>0.26970954356846472</v>
+      </c>
+      <c r="J19" s="3">
+        <v>454.91999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>46072</v>
+      </c>
+      <c r="B20" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" s="2">
+        <v>125.24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>61</v>
+      </c>
+      <c r="F20" s="7">
+        <v>244</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.89377289377289382</v>
+      </c>
+      <c r="H20" s="27">
+        <v>86</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0.35390946502057613</v>
+      </c>
+      <c r="J20" s="3">
+        <v>516.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B21" s="2">
+        <v>202</v>
+      </c>
+      <c r="C21" s="2">
+        <v>315.44</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7">
+        <v>257</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.93795620437956206</v>
+      </c>
+      <c r="H21" s="27">
+        <v>208</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0.8559670781893004</v>
+      </c>
+      <c r="J21" s="3">
+        <v>608.54999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>46074</v>
+      </c>
+      <c r="B22" s="2">
+        <v>210</v>
+      </c>
+      <c r="C22" s="2">
+        <v>189.84</v>
+      </c>
+      <c r="D22" s="5">
+        <v>43.6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>255</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.93065693430656937</v>
+      </c>
+      <c r="H22" s="27">
+        <v>196</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0.80658436213991769</v>
+      </c>
+      <c r="J22" s="3">
+        <v>576.54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>46075</v>
+      </c>
+      <c r="B23" s="2">
+        <v>86.47999999999999</v>
+      </c>
+      <c r="C23" s="2">
+        <v>216.72</v>
+      </c>
+      <c r="D23" s="5">
+        <v>42.6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>112</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.40875912408759124</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>299.45999999999992</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1236,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9711DB-0E10-4316-BF02-2D52FFDD8F75}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1433,7 @@
       <c r="H1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="34"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
@@ -1715,6 +1875,136 @@
       </c>
       <c r="H18" s="2">
         <v>175.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>46071</v>
+      </c>
+      <c r="B19" s="5">
+        <v>59.7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>35.21</v>
+      </c>
+      <c r="D19" s="5">
+        <v>23.38</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>118.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>46072</v>
+      </c>
+      <c r="B20" s="5">
+        <v>9.23</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9.08</v>
+      </c>
+      <c r="D20" s="5">
+        <v>18.93</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50.33</v>
+      </c>
+      <c r="F20" s="5">
+        <v>37.67</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>125.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>46073</v>
+      </c>
+      <c r="B21" s="5">
+        <v>86.05</v>
+      </c>
+      <c r="C21" s="5">
+        <v>90.43</v>
+      </c>
+      <c r="D21" s="5">
+        <v>53.6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>53.91</v>
+      </c>
+      <c r="F21" s="5">
+        <v>31.45</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>315.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>46074</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>105.42</v>
+      </c>
+      <c r="F22" s="5">
+        <v>74.92</v>
+      </c>
+      <c r="G22" s="5">
+        <v>9.5</v>
+      </c>
+      <c r="H22" s="5">
+        <v>189.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>46075</v>
+      </c>
+      <c r="B23" s="5">
+        <v>72.36</v>
+      </c>
+      <c r="C23" s="5">
+        <v>57.19</v>
+      </c>
+      <c r="D23" s="5">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="E23" s="5">
+        <v>12.54</v>
+      </c>
+      <c r="F23" s="5">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="G23" s="5">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="H23" s="5">
+        <v>216.72</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +2018,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,10 +2325,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AEE77C-5FB8-40DF-9D4B-3234BB95BE83}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,6 +3230,157 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>46071</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="D20" s="8">
+        <v>2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="8">
+        <v>12</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>46072</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="J21" s="8">
+        <v>4</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>46073</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>46075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2948,10 +3389,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFD4226-665B-4F5B-BDF7-F9DE3FD59BFD}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,34 +3419,34 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="33"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
@@ -3849,6 +4290,157 @@
       </c>
       <c r="O19" s="8">
         <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>46071</v>
+      </c>
+      <c r="B20" s="29">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="D20" s="29">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10</v>
+      </c>
+      <c r="F20" s="29">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8">
+        <v>11.333333333333332</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="29">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="29">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="29">
+        <v>113</v>
+      </c>
+      <c r="O20" s="8">
+        <v>8.0714285714285712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>46072</v>
+      </c>
+      <c r="B21" s="29">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D21" s="29">
+        <v>2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>2</v>
+      </c>
+      <c r="F21" s="29">
+        <v>13</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="H21" s="29">
+        <v>48</v>
+      </c>
+      <c r="I21" s="8">
+        <v>8</v>
+      </c>
+      <c r="J21" s="29">
+        <v>38</v>
+      </c>
+      <c r="K21" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="L21" s="29">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="29">
+        <v>108</v>
+      </c>
+      <c r="O21" s="8">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>46073</v>
+      </c>
+      <c r="B22" s="29">
+        <v>31</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>66</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F22" s="29">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="H22" s="29">
+        <v>31</v>
+      </c>
+      <c r="I22" s="8">
+        <v>3.875</v>
+      </c>
+      <c r="J22" s="29">
+        <v>50</v>
+      </c>
+      <c r="K22" s="8">
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="29">
+        <v>197</v>
+      </c>
+      <c r="O22" s="8">
+        <v>4.9249999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>46074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>46075</v>
       </c>
     </row>
   </sheetData>
